--- a/biology/Zoologie/Acridoidea/Acridoidea.xlsx
+++ b/biology/Zoologie/Acridoidea/Acridoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acridoidea sont une super-famille d'insectes orthoptères[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acridoidea sont une super-famille d'insectes orthoptères.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette super-famille se rencontrent sur tous les continents[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette super-famille se rencontrent sur tous les continents.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File  (16 juillet 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File  (16 juillet 2018) :
 famille Acrididae MacLeay, 1821
 famille Dericorythidae Jacobson &amp; Bianchi, 1905
 famille Lathiceridae Dirsh, 1954
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>MacLeay, 1821 : Horae entomologicae: or essays on the annulose animals. Bagster, vol. 1, part. 2, p. 161-524.</t>
         </is>
